--- a/3Dmark/3dmark.xlsx
+++ b/3Dmark/3dmark.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive\Documents\GitHub\benchmark\3Dmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_AD4DB114E441178AC67DF4EBEE97E408693EDF27" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BF69168F-6049-47DC-B468-E950B0C8856A}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="11_AD4DB114E441178AC67DF4EBEE97E408693EDF27" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6927E35D-A461-4F53-B672-EDD8EF893804}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="630" windowWidth="21390" windowHeight="20325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14895" yWindow="3840" windowWidth="16440" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="2000-2011" sheetId="2" r:id="rId2"/>
+    <sheet name="3DMark" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
   <si>
     <t>Grafikkarte</t>
   </si>
@@ -341,6 +342,117 @@
   </si>
   <si>
     <t>HP mini 110-3100</t>
+  </si>
+  <si>
+    <t>3DMark2005</t>
+  </si>
+  <si>
+    <t>3DMark2003</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>hdr</t>
+  </si>
+  <si>
+    <t>sm2.0</t>
+  </si>
+  <si>
+    <t>3DMark2006</t>
+  </si>
+  <si>
+    <t>graphics</t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>3DMark2011</t>
+  </si>
+  <si>
+    <t>P280</t>
+  </si>
+  <si>
+    <t>P1824</t>
+  </si>
+  <si>
+    <t>P1839</t>
+  </si>
+  <si>
+    <t>P3073</t>
+  </si>
+  <si>
+    <t>P6203</t>
+  </si>
+  <si>
+    <t>Nvidia GTX 650</t>
+  </si>
+  <si>
+    <t>AMD RX470</t>
+  </si>
+  <si>
+    <t>Nvidia GTX 960</t>
+  </si>
+  <si>
+    <t>P9674</t>
+  </si>
+  <si>
+    <t>P27224</t>
+  </si>
+  <si>
+    <t>P13570</t>
+  </si>
+  <si>
+    <t>MacBook Pro 15</t>
+  </si>
+  <si>
+    <t>i7-4960HQ</t>
+  </si>
+  <si>
+    <t>P2204</t>
+  </si>
+  <si>
+    <t>GeForce GT750M</t>
+  </si>
+  <si>
+    <t>P3113</t>
+  </si>
+  <si>
+    <t>P4636</t>
+  </si>
+  <si>
+    <t>P18243</t>
+  </si>
+  <si>
+    <t>CUDA</t>
+  </si>
+  <si>
+    <t>Jetson Nano</t>
+  </si>
+  <si>
+    <t>Cortex A57</t>
+  </si>
+  <si>
+    <t>Maxwell 921 MHz</t>
+  </si>
+  <si>
+    <t>time_spy</t>
+  </si>
+  <si>
+    <t>fire_strike</t>
+  </si>
+  <si>
+    <t>sky_diver</t>
+  </si>
+  <si>
+    <t>cloud_gate</t>
+  </si>
+  <si>
+    <t>ice_storm</t>
+  </si>
+  <si>
+    <t>Medion E1232T</t>
   </si>
 </sst>
 </file>
@@ -348,7 +460,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -403,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -411,11 +523,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -430,16 +615,49 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +941,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C18"/>
+      <selection activeCell="J3" sqref="J3:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,20 +950,17 @@
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="5" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="28.5703125" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" customWidth="1"/>
     <col min="11" max="11" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2">
@@ -754,14 +969,14 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="10">
         <v>2003</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10">
         <v>2005</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
@@ -772,23 +987,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1301,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9849F7C7-26D4-4D1D-82D0-DFED8D9A7AB7}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,339 +1528,1402 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D1" s="13"/>
+      <c r="E1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="H1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>1.2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="18">
         <v>4492</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="13">
         <v>422</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="19">
+        <v>2258</v>
+      </c>
+      <c r="H3" s="18">
+        <v>114</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="8"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="8"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>1.6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="18">
         <v>3230</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="13">
         <v>282</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="19">
+        <v>2597</v>
+      </c>
+      <c r="H4" s="18">
+        <v>696</v>
+      </c>
+      <c r="I4" s="13">
+        <v>265</v>
+      </c>
+      <c r="J4" s="18">
+        <v>297</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2001</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="8"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="8"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>1.8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="18"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="19">
+        <v>5251</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1341</v>
+      </c>
+      <c r="I5" s="13">
+        <v>591</v>
+      </c>
+      <c r="J5" s="18">
+        <v>673</v>
+      </c>
+      <c r="K5" s="13">
+        <v>4191</v>
+      </c>
+      <c r="L5">
+        <v>194</v>
+      </c>
+      <c r="M5">
+        <v>89</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="13">
+        <v>694</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="8"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>1.8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="18"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="19">
+        <v>13944</v>
+      </c>
+      <c r="H6" s="18">
+        <v>7033</v>
+      </c>
+      <c r="I6" s="13">
+        <v>818</v>
+      </c>
+      <c r="J6" s="18">
+        <v>4677</v>
+      </c>
+      <c r="K6" s="13">
+        <v>4112</v>
+      </c>
+      <c r="L6">
+        <v>2053</v>
+      </c>
+      <c r="M6">
+        <v>790</v>
+      </c>
+      <c r="N6">
+        <v>904</v>
+      </c>
+      <c r="O6" s="13">
+        <v>702</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="8"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>2.6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="18"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18">
+        <v>1687</v>
+      </c>
+      <c r="I7" s="13">
+        <v>777</v>
+      </c>
+      <c r="J7" s="18">
+        <v>741</v>
+      </c>
+      <c r="K7" s="13">
+        <v>3692</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="8"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="8"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="18"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="19">
+        <v>6343</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2836</v>
+      </c>
+      <c r="I8" s="13">
+        <v>877</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1302</v>
+      </c>
+      <c r="K8" s="13">
+        <v>5943</v>
+      </c>
+      <c r="L8">
+        <v>508</v>
+      </c>
+      <c r="M8">
+        <v>235</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1542</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="8"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
       <c r="B9" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>1.6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="18">
         <v>1447</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="13">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="19">
+        <v>4646</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2862</v>
+      </c>
+      <c r="I9" s="13">
+        <v>226</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1739</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1515</v>
+      </c>
+      <c r="L9">
+        <v>1105</v>
+      </c>
+      <c r="M9">
+        <v>413</v>
+      </c>
+      <c r="N9">
+        <v>403</v>
+      </c>
+      <c r="O9" s="13">
+        <v>852</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9">
+        <v>218</v>
+      </c>
+      <c r="R9" s="13">
+        <v>2087</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="18">
         <v>16609</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="13">
         <v>811</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="19">
+        <v>14465</v>
+      </c>
+      <c r="H10" s="18">
+        <v>6376</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1310</v>
+      </c>
+      <c r="J10" s="18">
+        <v>3621</v>
+      </c>
+      <c r="K10" s="13">
+        <v>8650</v>
+      </c>
+      <c r="L10">
+        <v>1525</v>
+      </c>
+      <c r="M10">
+        <v>577</v>
+      </c>
+      <c r="N10">
+        <v>517</v>
+      </c>
+      <c r="O10" s="13">
+        <v>1727</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="8"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="18"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18">
+        <v>16260</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1417</v>
+      </c>
+      <c r="J11" s="18">
+        <v>10393</v>
+      </c>
+      <c r="K11" s="13">
+        <v>10404</v>
+      </c>
+      <c r="L11">
+        <v>5040</v>
+      </c>
+      <c r="M11">
+        <v>2162</v>
+      </c>
+      <c r="N11">
+        <v>1969</v>
+      </c>
+      <c r="O11" s="13">
+        <v>1774</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="8"/>
+      <c r="U11" s="13"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>2.8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="18">
         <v>9826</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="13">
         <v>1005</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="19">
+        <v>7988</v>
+      </c>
+      <c r="H12" s="18">
+        <v>2043</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1136</v>
+      </c>
+      <c r="J12" s="18">
+        <v>799</v>
+      </c>
+      <c r="K12" s="13">
+        <v>7474</v>
+      </c>
+      <c r="L12">
+        <v>283</v>
+      </c>
+      <c r="M12">
+        <v>129</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="13">
+        <v>2421</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="8"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
       <c r="B13" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>2.8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="18">
         <v>29027</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="13">
         <v>1092</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="19"/>
+      <c r="H13" s="18">
+        <v>11297</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1925</v>
+      </c>
+      <c r="J13" s="18">
+        <v>6663</v>
+      </c>
+      <c r="K13" s="13">
+        <v>14127</v>
+      </c>
+      <c r="L13">
+        <v>3614</v>
+      </c>
+      <c r="M13">
+        <v>1247</v>
+      </c>
+      <c r="N13">
+        <v>1439</v>
+      </c>
+      <c r="O13" s="13">
+        <v>2557</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13">
+        <v>1489</v>
+      </c>
+      <c r="R13" s="13">
+        <v>5602</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="U13" s="13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>2.5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="18">
         <v>16265</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="13">
         <v>1050</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="19">
+        <v>12123</v>
+      </c>
+      <c r="H14" s="18">
+        <v>7824</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1772</v>
+      </c>
+      <c r="J14" s="18">
+        <v>6095</v>
+      </c>
+      <c r="K14" s="13">
+        <v>17372</v>
+      </c>
+      <c r="L14">
+        <v>4132</v>
+      </c>
+      <c r="M14">
+        <v>1329</v>
+      </c>
+      <c r="N14">
+        <v>1689</v>
+      </c>
+      <c r="O14" s="13">
+        <v>3594</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14">
+        <v>1450</v>
+      </c>
+      <c r="R14" s="13">
+        <v>9484</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>2.6</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="18">
         <v>4318</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="13">
         <v>480</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="19">
+        <v>15132</v>
+      </c>
+      <c r="H15" s="18">
+        <v>8885</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1706</v>
+      </c>
+      <c r="J15" s="18">
+        <v>6710</v>
+      </c>
+      <c r="K15" s="13">
+        <v>18788</v>
+      </c>
+      <c r="L15">
+        <v>5380</v>
+      </c>
+      <c r="M15">
+        <v>1746</v>
+      </c>
+      <c r="N15">
+        <v>2274</v>
+      </c>
+      <c r="O15" s="13">
+        <v>3596</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15">
+        <v>2490</v>
+      </c>
+      <c r="R15" s="13">
+        <v>10347</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="U15" s="13"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>3.2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="18">
         <v>25679</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="13">
         <v>1252</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="19">
+        <v>14562</v>
+      </c>
+      <c r="H16" s="18">
+        <v>6756</v>
+      </c>
+      <c r="I16" s="13">
+        <v>2174</v>
+      </c>
+      <c r="J16" s="18">
+        <v>5234</v>
+      </c>
+      <c r="K16" s="13">
+        <v>21283</v>
+      </c>
+      <c r="L16">
+        <v>2412</v>
+      </c>
+      <c r="M16">
+        <v>806</v>
+      </c>
+      <c r="N16">
+        <v>888</v>
+      </c>
+      <c r="O16" s="13">
+        <v>4591</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="8"/>
+      <c r="U16" s="13"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>3.2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="18"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18">
+        <v>8898</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2346</v>
+      </c>
+      <c r="J17" s="18">
+        <v>6353</v>
+      </c>
+      <c r="K17" s="13">
+        <v>22150</v>
+      </c>
+      <c r="L17">
+        <v>3398</v>
+      </c>
+      <c r="M17">
+        <v>1125</v>
+      </c>
+      <c r="N17">
+        <v>1289</v>
+      </c>
+      <c r="O17" s="13">
+        <v>4760</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="8"/>
+      <c r="U17" s="13"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>3.2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="18">
         <v>1636</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="13">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="18">
+        <v>32919</v>
+      </c>
+      <c r="I18" s="13">
+        <v>2374</v>
+      </c>
+      <c r="J18" s="18">
+        <v>17129</v>
+      </c>
+      <c r="K18" s="13">
+        <v>21693</v>
+      </c>
+      <c r="L18">
+        <v>11357</v>
+      </c>
+      <c r="M18">
+        <v>4001</v>
+      </c>
+      <c r="N18">
+        <v>4992</v>
+      </c>
+      <c r="O18" s="13">
+        <v>4831</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18">
+        <v>5404</v>
+      </c>
+      <c r="R18" s="13">
+        <v>11146</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="U18" s="13"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>2.7</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="18">
+        <v>4307</v>
+      </c>
+      <c r="F19" s="13">
+        <v>475</v>
+      </c>
+      <c r="G19" s="19">
+        <v>62894</v>
+      </c>
+      <c r="H19" s="18">
+        <v>61569</v>
+      </c>
+      <c r="I19" s="13">
+        <v>353</v>
+      </c>
+      <c r="J19" s="18">
+        <v>31804</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1136</v>
+      </c>
+      <c r="L19">
+        <v>24977</v>
+      </c>
+      <c r="M19">
+        <v>9937</v>
+      </c>
+      <c r="N19">
+        <v>11437</v>
+      </c>
+      <c r="O19" s="13">
+        <v>7296</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19">
+        <v>16638</v>
+      </c>
+      <c r="R19" s="13">
+        <v>25670</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T19">
+        <v>4242</v>
+      </c>
+      <c r="U19" s="13">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="18">
+        <v>23055</v>
+      </c>
+      <c r="K20" s="13">
+        <v>22128</v>
+      </c>
+      <c r="L20">
+        <v>17083</v>
+      </c>
+      <c r="M20">
+        <v>6631</v>
+      </c>
+      <c r="N20">
+        <v>7194</v>
+      </c>
+      <c r="O20" s="13">
+        <v>6416</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20">
+        <v>11336</v>
+      </c>
+      <c r="R20" s="13">
+        <v>33177</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="T20">
+        <v>2830</v>
+      </c>
+      <c r="U20" s="13">
+        <v>8632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>2.67</v>
       </c>
+      <c r="D21" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="18">
+        <v>23187</v>
+      </c>
+      <c r="K21" s="13">
+        <v>742</v>
+      </c>
+      <c r="L21">
+        <v>20211</v>
+      </c>
+      <c r="M21">
+        <v>6731</v>
+      </c>
+      <c r="N21">
+        <v>9800</v>
+      </c>
+      <c r="O21" s="13">
+        <v>7193</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="8"/>
+      <c r="U21" s="13"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="19">
+        <v>40469</v>
+      </c>
+      <c r="H22" s="18">
+        <v>84416</v>
+      </c>
+      <c r="I22" s="13">
+        <v>201</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22">
+        <v>25653</v>
+      </c>
+      <c r="R22" s="13">
+        <v>33350</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22">
+        <v>10130</v>
+      </c>
+      <c r="U22" s="13">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T23">
+        <v>2004</v>
+      </c>
+      <c r="U23" s="13">
+        <v>6531</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE89E42-58B4-4FEF-A9D5-830DE33AE146}">
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8">
+        <v>512</v>
+      </c>
+      <c r="F8">
+        <v>1116</v>
+      </c>
+      <c r="G8">
+        <v>3342</v>
+      </c>
+      <c r="H8">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9">
+        <v>384</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>7496</v>
+      </c>
+      <c r="I9">
+        <v>12942</v>
+      </c>
+      <c r="J9">
+        <v>81396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>3763</v>
+      </c>
+      <c r="H10">
+        <v>24921</v>
+      </c>
+      <c r="I10">
+        <v>26926</v>
+      </c>
+      <c r="J10">
+        <v>96411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3Dmark/3dmark.xlsx
+++ b/3Dmark/3dmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive\Documents\GitHub\benchmark\3Dmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e77ee0812acbc54/Documents/GitHub/benchmark/3Dmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="11_AD4DB114E441178AC67DF4EBEE97E408693EDF27" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6927E35D-A461-4F53-B672-EDD8EF893804}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="11_AD4DB114E441178AC67DF4EBEE97E408693EDF27" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{812ACA78-6DE2-4B91-99F6-16B66CFD4ED2}"/>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="3840" windowWidth="16440" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5700" windowWidth="26685" windowHeight="13095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
   <si>
     <t>Grafikkarte</t>
   </si>
@@ -453,6 +453,42 @@
   </si>
   <si>
     <t>Medion E1232T</t>
+  </si>
+  <si>
+    <t>mk1 onboard</t>
+  </si>
+  <si>
+    <t>mk1 silet</t>
+  </si>
+  <si>
+    <t>mark 2009</t>
+  </si>
+  <si>
+    <t>manuael laptop</t>
+  </si>
+  <si>
+    <t>mk2 silent</t>
+  </si>
+  <si>
+    <t>mk2 silent2</t>
+  </si>
+  <si>
+    <t>mk2 gpu 2013</t>
+  </si>
+  <si>
+    <t>Z600 2018</t>
+  </si>
+  <si>
+    <t>Z600 2019</t>
+  </si>
+  <si>
+    <t>Z600 2020</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>ROtTR</t>
   </si>
 </sst>
 </file>
@@ -600,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -625,23 +661,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -657,6 +681,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,10 +994,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2">
@@ -969,14 +1006,14 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="20">
         <v>2003</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20">
         <v>2005</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
@@ -988,22 +1025,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1516,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9849F7C7-26D4-4D1D-82D0-DFED8D9A7AB7}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,101 +1571,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D1" s="13"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="P2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="Q2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1642,31 +1679,31 @@
       <c r="C3" s="7">
         <v>1.2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>4492</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>422</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <v>2258</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>114</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="11"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="8"/>
-      <c r="R3" s="13"/>
+      <c r="R3" s="11"/>
       <c r="S3" s="8"/>
-      <c r="U3" s="13"/>
+      <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1678,61 +1715,64 @@
       <c r="C4" s="7">
         <v>1.6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>3230</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>282</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="15">
         <v>2597</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>696</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>265</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <v>297</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>2001</v>
       </c>
-      <c r="O4" s="13"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="8"/>
-      <c r="R4" s="13"/>
+      <c r="R4" s="11"/>
       <c r="S4" s="8"/>
-      <c r="U4" s="13"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
       <c r="B5" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="7">
         <v>1.8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="19">
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="15">
         <v>5251</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>1341</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>591</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="14">
         <v>673</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>4191</v>
       </c>
       <c r="L5">
@@ -1744,88 +1784,98 @@
       <c r="N5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <v>694</v>
       </c>
       <c r="P5" s="8"/>
-      <c r="R5" s="13"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="8"/>
-      <c r="U5" s="13"/>
+      <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="19">
-        <v>13944</v>
-      </c>
-      <c r="H6" s="18">
-        <v>7033</v>
-      </c>
-      <c r="I6" s="13">
-        <v>818</v>
-      </c>
-      <c r="J6" s="18">
-        <v>4677</v>
-      </c>
-      <c r="K6" s="13">
-        <v>4112</v>
-      </c>
-      <c r="L6">
-        <v>2053</v>
-      </c>
-      <c r="M6">
-        <v>790</v>
-      </c>
-      <c r="N6">
-        <v>904</v>
-      </c>
-      <c r="O6" s="13">
-        <v>702</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14">
+        <v>1687</v>
+      </c>
+      <c r="I6" s="11">
+        <v>777</v>
+      </c>
+      <c r="J6" s="14">
+        <v>741</v>
+      </c>
+      <c r="K6" s="11">
+        <v>3692</v>
+      </c>
+      <c r="O6" s="11"/>
       <c r="P6" s="8"/>
-      <c r="R6" s="13"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="8"/>
-      <c r="U6" s="13"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18">
-        <v>1687</v>
-      </c>
-      <c r="I7" s="13">
-        <v>777</v>
-      </c>
-      <c r="J7" s="18">
-        <v>741</v>
-      </c>
-      <c r="K7" s="13">
-        <v>3692</v>
-      </c>
-      <c r="O7" s="13"/>
+        <v>2.8</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="14">
+        <v>9826</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1005</v>
+      </c>
+      <c r="G7" s="15">
+        <v>7988</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2043</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1136</v>
+      </c>
+      <c r="J7" s="14">
+        <v>799</v>
+      </c>
+      <c r="K7" s="11">
+        <v>7474</v>
+      </c>
+      <c r="L7">
+        <v>283</v>
+      </c>
+      <c r="M7">
+        <v>129</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2421</v>
+      </c>
       <c r="P7" s="8"/>
-      <c r="R7" s="13"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="8"/>
-      <c r="U7" s="13"/>
+      <c r="U7" s="11"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1837,24 +1887,24 @@
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="19">
+      <c r="E8" s="14"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15">
         <v>6343</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="14">
         <v>2836</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>877</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="14">
         <v>1302</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>5943</v>
       </c>
       <c r="L8">
@@ -1866,13 +1916,13 @@
       <c r="N8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <v>1542</v>
       </c>
       <c r="P8" s="8"/>
-      <c r="R8" s="13"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="8"/>
-      <c r="U8" s="13"/>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1884,28 +1934,28 @@
       <c r="C9" s="7">
         <v>1.6</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <v>1447</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>151</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="15">
         <v>4646</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <v>2862</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>226</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="14">
         <v>1739</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>1515</v>
       </c>
       <c r="L9">
@@ -1917,7 +1967,7 @@
       <c r="N9">
         <v>403</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <v>852</v>
       </c>
       <c r="P9" s="8" t="s">
@@ -1926,11 +1976,11 @@
       <c r="Q9">
         <v>218</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="11">
         <v>2087</v>
       </c>
       <c r="S9" s="8"/>
-      <c r="U9" s="13"/>
+      <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1942,28 +1992,28 @@
       <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>16609</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>811</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <v>14465</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <v>6376</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>1310</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="14">
         <v>3621</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>8650</v>
       </c>
       <c r="L10">
@@ -1975,398 +2025,406 @@
       <c r="N10">
         <v>517</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <v>1727</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="R10" s="13"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="8"/>
-      <c r="U10" s="13"/>
+      <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18">
-        <v>16260</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1417</v>
-      </c>
-      <c r="J11" s="18">
-        <v>10393</v>
-      </c>
-      <c r="K11" s="13">
-        <v>10404</v>
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="15">
+        <v>13944</v>
+      </c>
+      <c r="H11" s="14">
+        <v>7033</v>
+      </c>
+      <c r="I11" s="11">
+        <v>818</v>
+      </c>
+      <c r="J11" s="14">
+        <v>4677</v>
+      </c>
+      <c r="K11" s="11">
+        <v>4112</v>
       </c>
       <c r="L11">
-        <v>5040</v>
+        <v>2053</v>
       </c>
       <c r="M11">
-        <v>2162</v>
+        <v>790</v>
       </c>
       <c r="N11">
-        <v>1969</v>
-      </c>
-      <c r="O11" s="13">
-        <v>1774</v>
+        <v>904</v>
+      </c>
+      <c r="O11" s="11">
+        <v>702</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="R11" s="13"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="8"/>
-      <c r="U11" s="13"/>
+      <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C12" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="18">
-        <v>9826</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1005</v>
-      </c>
-      <c r="G12" s="19">
-        <v>7988</v>
-      </c>
-      <c r="H12" s="18">
-        <v>2043</v>
-      </c>
-      <c r="I12" s="13">
-        <v>1136</v>
-      </c>
-      <c r="J12" s="18">
-        <v>799</v>
-      </c>
-      <c r="K12" s="13">
-        <v>7474</v>
+        <v>3.2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="14">
+        <v>25679</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1252</v>
+      </c>
+      <c r="G12" s="15">
+        <v>14562</v>
+      </c>
+      <c r="H12" s="14">
+        <v>6756</v>
+      </c>
+      <c r="I12" s="11">
+        <v>2174</v>
+      </c>
+      <c r="J12" s="14">
+        <v>5234</v>
+      </c>
+      <c r="K12" s="11">
+        <v>21283</v>
       </c>
       <c r="L12">
-        <v>283</v>
+        <v>2412</v>
       </c>
       <c r="M12">
-        <v>129</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="13">
-        <v>2421</v>
+        <v>806</v>
+      </c>
+      <c r="N12">
+        <v>888</v>
+      </c>
+      <c r="O12" s="11">
+        <v>4591</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="R12" s="13"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="8"/>
-      <c r="U12" s="13"/>
+      <c r="U12" s="11"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C13" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="18">
-        <v>29027</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1092</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18">
-        <v>11297</v>
-      </c>
-      <c r="I13" s="13">
-        <v>1925</v>
-      </c>
-      <c r="J13" s="18">
-        <v>6663</v>
-      </c>
-      <c r="K13" s="13">
-        <v>14127</v>
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="14">
+        <v>16265</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1050</v>
+      </c>
+      <c r="G13" s="15">
+        <v>12123</v>
+      </c>
+      <c r="H13" s="14">
+        <v>7824</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1772</v>
+      </c>
+      <c r="J13" s="14">
+        <v>6095</v>
+      </c>
+      <c r="K13" s="11">
+        <v>17372</v>
       </c>
       <c r="L13">
-        <v>3614</v>
+        <v>4132</v>
       </c>
       <c r="M13">
-        <v>1247</v>
+        <v>1329</v>
       </c>
       <c r="N13">
-        <v>1439</v>
-      </c>
-      <c r="O13" s="13">
-        <v>2557</v>
+        <v>1689</v>
+      </c>
+      <c r="O13" s="11">
+        <v>3594</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q13">
-        <v>1489</v>
-      </c>
-      <c r="R13" s="13">
-        <v>5602</v>
+        <v>1450</v>
+      </c>
+      <c r="R13" s="11">
+        <v>9484</v>
       </c>
       <c r="S13" s="8"/>
-      <c r="U13" s="13"/>
+      <c r="U13" s="11"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="18">
-        <v>16265</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1050</v>
-      </c>
-      <c r="G14" s="19">
-        <v>12123</v>
-      </c>
-      <c r="H14" s="18">
-        <v>7824</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1772</v>
-      </c>
-      <c r="J14" s="18">
-        <v>6095</v>
-      </c>
-      <c r="K14" s="13">
-        <v>17372</v>
+        <v>3.2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14">
+        <v>8898</v>
+      </c>
+      <c r="I14" s="11">
+        <v>2346</v>
+      </c>
+      <c r="J14" s="14">
+        <v>6353</v>
+      </c>
+      <c r="K14" s="11">
+        <v>22150</v>
       </c>
       <c r="L14">
-        <v>4132</v>
+        <v>3398</v>
       </c>
       <c r="M14">
-        <v>1329</v>
+        <v>1125</v>
       </c>
       <c r="N14">
-        <v>1689</v>
-      </c>
-      <c r="O14" s="13">
-        <v>3594</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14">
-        <v>1450</v>
-      </c>
-      <c r="R14" s="13">
-        <v>9484</v>
-      </c>
+        <v>1289</v>
+      </c>
+      <c r="O14" s="11">
+        <v>4760</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="8"/>
-      <c r="U14" s="13"/>
+      <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="14">
+        <v>29027</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1092</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14">
+        <v>11297</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1925</v>
+      </c>
+      <c r="J15" s="14">
+        <v>6663</v>
+      </c>
+      <c r="K15" s="11">
+        <v>14127</v>
+      </c>
+      <c r="L15">
+        <v>3614</v>
+      </c>
+      <c r="M15">
+        <v>1247</v>
+      </c>
+      <c r="N15">
+        <v>1439</v>
+      </c>
+      <c r="O15" s="11">
+        <v>2557</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15">
+        <v>1489</v>
+      </c>
+      <c r="R15" s="11">
+        <v>5602</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <v>2.6</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E16" s="14">
         <v>4318</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="11">
         <v>480</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G16" s="15">
         <v>15132</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H16" s="14">
         <v>8885</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="11">
         <v>1706</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J16" s="14">
         <v>6710</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="11">
         <v>18788</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>5380</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>1746</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>2274</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O16" s="11">
         <v>3596</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P16" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <v>2490</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R16" s="11">
         <v>10347</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="U15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="18">
-        <v>25679</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1252</v>
-      </c>
-      <c r="G16" s="19">
-        <v>14562</v>
-      </c>
-      <c r="H16" s="18">
-        <v>6756</v>
-      </c>
-      <c r="I16" s="13">
-        <v>2174</v>
-      </c>
-      <c r="J16" s="18">
-        <v>5234</v>
-      </c>
-      <c r="K16" s="13">
-        <v>21283</v>
-      </c>
-      <c r="L16">
-        <v>2412</v>
-      </c>
-      <c r="M16">
-        <v>806</v>
-      </c>
-      <c r="N16">
-        <v>888</v>
-      </c>
-      <c r="O16" s="13">
-        <v>4591</v>
-      </c>
-      <c r="P16" s="8"/>
-      <c r="R16" s="13"/>
       <c r="S16" s="8"/>
-      <c r="U16" s="13"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="18">
-        <v>8898</v>
-      </c>
-      <c r="I17" s="13">
-        <v>2346</v>
-      </c>
-      <c r="J17" s="18">
-        <v>6353</v>
-      </c>
-      <c r="K17" s="13">
-        <v>22150</v>
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14">
+        <v>16260</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1417</v>
+      </c>
+      <c r="J17" s="14">
+        <v>10393</v>
+      </c>
+      <c r="K17" s="11">
+        <v>10404</v>
       </c>
       <c r="L17">
-        <v>3398</v>
+        <v>5040</v>
       </c>
       <c r="M17">
-        <v>1125</v>
+        <v>2162</v>
       </c>
       <c r="N17">
-        <v>1289</v>
-      </c>
-      <c r="O17" s="13">
-        <v>4760</v>
+        <v>1969</v>
+      </c>
+      <c r="O17" s="11">
+        <v>1774</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="R17" s="13"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="8"/>
-      <c r="U17" s="13"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
       <c r="B18" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="7">
         <v>3.2</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="14">
         <v>1636</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>195</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="14">
         <v>32919</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <v>2374</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="14">
         <v>17129</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <v>21693</v>
       </c>
       <c r="L18">
@@ -2378,7 +2436,7 @@
       <c r="N18">
         <v>4992</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="11">
         <v>4831</v>
       </c>
       <c r="P18" s="8" t="s">
@@ -2387,80 +2445,61 @@
       <c r="Q18">
         <v>5404</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="11">
         <v>11146</v>
       </c>
       <c r="S18" s="8"/>
-      <c r="U18" s="13"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C19" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="18">
-        <v>4307</v>
-      </c>
-      <c r="F19" s="13">
-        <v>475</v>
-      </c>
-      <c r="G19" s="19">
-        <v>62894</v>
-      </c>
-      <c r="H19" s="18">
-        <v>61569</v>
-      </c>
-      <c r="I19" s="13">
-        <v>353</v>
-      </c>
-      <c r="J19" s="18">
-        <v>31804</v>
-      </c>
-      <c r="K19" s="13">
-        <v>1136</v>
-      </c>
-      <c r="L19">
-        <v>24977</v>
-      </c>
-      <c r="M19">
-        <v>9937</v>
-      </c>
-      <c r="N19">
-        <v>11437</v>
-      </c>
-      <c r="O19" s="13">
-        <v>7296</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19">
-        <v>16638</v>
-      </c>
-      <c r="R19" s="13">
-        <v>25670</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="14">
+        <v>4315</v>
+      </c>
+      <c r="F19" s="11">
+        <v>477</v>
+      </c>
+      <c r="G19" s="15">
+        <v>39582</v>
+      </c>
+      <c r="H19" s="14">
+        <v>30577</v>
+      </c>
+      <c r="I19" s="11">
+        <v>326</v>
+      </c>
+      <c r="J19" s="14">
+        <v>16656</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1313</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T19">
-        <v>4242</v>
-      </c>
-      <c r="U19" s="13">
-        <v>9030</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2004</v>
+      </c>
+      <c r="U19" s="11">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>98</v>
@@ -2468,18 +2507,18 @@
       <c r="C20" s="7">
         <v>2.67</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="18">
+      <c r="E20" s="14"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="14">
         <v>23055</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="11">
         <v>22128</v>
       </c>
       <c r="L20">
@@ -2491,7 +2530,7 @@
       <c r="N20">
         <v>7194</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="11">
         <v>6416</v>
       </c>
       <c r="P20" s="8" t="s">
@@ -2500,7 +2539,7 @@
       <c r="Q20">
         <v>11336</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="11">
         <v>33177</v>
       </c>
       <c r="S20" s="8" t="s">
@@ -2509,54 +2548,80 @@
       <c r="T20">
         <v>2830</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="11">
         <v>8632</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C21" s="7">
-        <v>2.67</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="18">
-        <v>23187</v>
-      </c>
-      <c r="K21" s="13">
-        <v>742</v>
+        <v>2.7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="14">
+        <v>4307</v>
+      </c>
+      <c r="F21" s="11">
+        <v>475</v>
+      </c>
+      <c r="G21" s="15">
+        <v>62894</v>
+      </c>
+      <c r="H21" s="14">
+        <v>61569</v>
+      </c>
+      <c r="I21" s="11">
+        <v>353</v>
+      </c>
+      <c r="J21" s="14">
+        <v>31804</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1136</v>
       </c>
       <c r="L21">
-        <v>20211</v>
+        <v>24977</v>
       </c>
       <c r="M21">
-        <v>6731</v>
+        <v>9937</v>
       </c>
       <c r="N21">
-        <v>9800</v>
-      </c>
-      <c r="O21" s="13">
-        <v>7193</v>
-      </c>
-      <c r="P21" s="8"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="8"/>
-      <c r="U21" s="13"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>11437</v>
+      </c>
+      <c r="O21" s="11">
+        <v>7296</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21">
+        <v>16638</v>
+      </c>
+      <c r="R21" s="11">
+        <v>25670</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T21">
+        <v>4242</v>
+      </c>
+      <c r="U21" s="11">
+        <v>9030</v>
+      </c>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
@@ -2564,30 +2629,49 @@
       <c r="C22" s="7">
         <v>2.67</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="19">
+      <c r="E22" s="14">
+        <v>4296</v>
+      </c>
+      <c r="F22" s="11">
+        <v>476</v>
+      </c>
+      <c r="G22" s="15">
         <v>40469</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="14">
         <v>84416</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="11">
         <v>201</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="J22" s="14">
+        <v>19189</v>
+      </c>
+      <c r="K22" s="11">
+        <v>806</v>
+      </c>
+      <c r="L22" s="19">
+        <v>20374</v>
+      </c>
+      <c r="M22" s="19">
+        <v>6999</v>
+      </c>
+      <c r="N22" s="19">
+        <v>9704</v>
+      </c>
+      <c r="O22" s="11">
+        <v>7166</v>
+      </c>
       <c r="P22" s="8" t="s">
         <v>123</v>
       </c>
       <c r="Q22">
         <v>25653</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="11">
         <v>33350</v>
       </c>
       <c r="S22" s="8" t="s">
@@ -2596,43 +2680,56 @@
       <c r="T22">
         <v>10130</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="11">
         <v>8996</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="19"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C23" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="T23">
-        <v>2004</v>
-      </c>
-      <c r="U23" s="13">
-        <v>6531</v>
-      </c>
+        <v>2.67</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="14">
+        <v>23187</v>
+      </c>
+      <c r="K23" s="11">
+        <v>742</v>
+      </c>
+      <c r="L23">
+        <v>20211</v>
+      </c>
+      <c r="M23">
+        <v>6731</v>
+      </c>
+      <c r="N23">
+        <v>9800</v>
+      </c>
+      <c r="O23" s="11">
+        <v>7193</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="8"/>
+      <c r="U23" s="11"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:V23">
+    <sortCondition ref="V19:V23"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="E1:F1"/>
@@ -2647,59 +2744,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE89E42-58B4-4FEF-A9D5-830DE33AE146}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
@@ -2708,222 +2809,225 @@
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="7">
         <v>2.5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="7">
         <v>2.6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6">
+        <v>384</v>
+      </c>
+      <c r="G6">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>7496</v>
+      </c>
+      <c r="J6">
+        <v>12942</v>
+      </c>
+      <c r="K6">
+        <v>81396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="7">
         <v>2.7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>83</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>512</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1116</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3342</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10869</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="L8">
+        <v>26.3</v>
+      </c>
+      <c r="M8">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="7">
         <v>2.67</v>
       </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9">
-        <v>384</v>
+      <c r="E9" t="s">
+        <v>121</v>
       </c>
       <c r="F9">
-        <v>75</v>
-      </c>
-      <c r="H9">
-        <v>7496</v>
-      </c>
-      <c r="I9">
-        <v>12942</v>
-      </c>
-      <c r="J9">
-        <v>81396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="7">
         <v>2.67</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>120</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3763</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>24921</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>26926</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>96411</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2.67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13">
-        <v>128</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K10">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3Dmark/3dmark.xlsx
+++ b/3Dmark/3dmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e77ee0812acbc54/Documents/GitHub/benchmark/3Dmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive\Documents\GitHub\benchmark\3Dmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="11_AD4DB114E441178AC67DF4EBEE97E408693EDF27" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{812ACA78-6DE2-4B91-99F6-16B66CFD4ED2}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="11_AD4DB114E441178AC67DF4EBEE97E408693EDF27" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8939B046-BF56-4E07-B81F-CF1A4ED6EB37}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5700" windowWidth="26685" windowHeight="13095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="8340" windowWidth="26685" windowHeight="11895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
   <si>
     <t>Grafikkarte</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>ROtTR</t>
+  </si>
+  <si>
+    <t>P9060</t>
+  </si>
+  <si>
+    <t>night_raid</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -683,6 +689,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,10 +1003,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2">
@@ -1006,14 +1015,14 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="21">
         <v>2003</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21">
         <v>2005</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1025,22 +1034,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1555,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9849F7C7-26D4-4D1D-82D0-DFED8D9A7AB7}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,37 +1581,37 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1" s="11"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2485,8 +2494,27 @@
       <c r="K19" s="11">
         <v>1313</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="L19" s="19">
+        <v>12732</v>
+      </c>
+      <c r="M19" s="19">
+        <v>5001</v>
+      </c>
+      <c r="N19" s="19">
+        <v>4887</v>
+      </c>
+      <c r="O19" s="11">
+        <v>6138</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>7794</v>
+      </c>
+      <c r="R19" s="11">
+        <v>17676</v>
+      </c>
       <c r="S19" s="8" t="s">
         <v>127</v>
       </c>
@@ -2744,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE89E42-58B4-4FEF-A9D5-830DE33AE146}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,12 +2787,13 @@
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>73</v>
       </c>
@@ -2786,22 +2815,24 @@
       <c r="H1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -2810,8 +2841,9 @@
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="9"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2831,7 +2863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2848,7 +2880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2865,7 +2897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2885,7 +2917,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2907,17 +2939,17 @@
       <c r="G6">
         <v>75</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7496</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12942</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>81396</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2936,8 +2968,17 @@
       <c r="F7">
         <v>384</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>491</v>
+      </c>
+      <c r="H7">
+        <v>1332</v>
+      </c>
+      <c r="J7">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2962,17 +3003,17 @@
       <c r="H8">
         <v>3342</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10869</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>26.3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>26.43</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2991,8 +3032,26 @@
       <c r="F9">
         <v>1024</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>2494</v>
+      </c>
+      <c r="H9">
+        <v>6659</v>
+      </c>
+      <c r="I9">
+        <v>11850</v>
+      </c>
+      <c r="J9">
+        <v>19545</v>
+      </c>
+      <c r="M9">
+        <v>42.4</v>
+      </c>
+      <c r="N9">
+        <v>35.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3014,18 +3073,18 @@
       <c r="G10">
         <v>3763</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>24921</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>26926</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>96411</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L10">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3Dmark/3dmark.xlsx
+++ b/3Dmark/3dmark.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive\Documents\GitHub\benchmark\3Dmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Library\Github\benchmark\3Dmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="11_AD4DB114E441178AC67DF4EBEE97E408693EDF27" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8939B046-BF56-4E07-B81F-CF1A4ED6EB37}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="8340" windowWidth="26685" windowHeight="11895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="8340" windowWidth="26690" windowHeight="11900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
   <si>
     <t>Grafikkarte</t>
   </si>
@@ -495,12 +494,21 @@
   </si>
   <si>
     <t>night_raid</t>
+  </si>
+  <si>
+    <t>Testbench Ideacenter</t>
+  </si>
+  <si>
+    <t>Pentium E6600</t>
+  </si>
+  <si>
+    <t>nVidia 9600 GSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -983,26 +991,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J18"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="5" max="8" width="8.453125" customWidth="1"/>
+    <col min="9" max="9" width="28.54296875" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>72</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="2" t="s">
@@ -1060,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1093,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1114,7 +1122,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1151,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1180,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1197,7 +1205,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1234,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1300,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1319,7 +1327,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -1350,7 +1358,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -1383,7 +1391,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -1418,7 +1426,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
@@ -1453,7 +1461,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>62</v>
       </c>
@@ -1484,7 +1492,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
@@ -1511,7 +1519,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
@@ -1561,25 +1569,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9849F7C7-26D4-4D1D-82D0-DFED8D9A7AB7}">
-  <dimension ref="A1:V23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="5" max="6" width="6.54296875" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D1" s="11"/>
       <c r="E1" s="23" t="s">
         <v>79</v>
@@ -1613,7 +1621,7 @@
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>73</v>
       </c>
@@ -1678,7 +1686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1714,7 +1722,7 @@
       <c r="S3" s="8"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1754,7 +1762,7 @@
       <c r="S4" s="8"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -1801,7 +1809,7 @@
       <c r="S5" s="8"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -1835,7 +1843,7 @@
       <c r="S6" s="8"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -1886,7 +1894,7 @@
       <c r="S7" s="8"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -1933,7 +1941,7 @@
       <c r="S8" s="8"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -1991,7 +1999,7 @@
       <c r="S9" s="8"/>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -2042,7 +2050,7 @@
       <c r="S10" s="8"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -2089,7 +2097,7 @@
       <c r="S11" s="8"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -2140,7 +2148,7 @@
       <c r="S12" s="8"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -2198,7 +2206,7 @@
       <c r="S13" s="8"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2243,7 +2251,7 @@
       <c r="S14" s="8"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2299,7 +2307,7 @@
       <c r="S15" s="8"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -2357,7 +2365,7 @@
       <c r="S16" s="8"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -2402,320 +2410,291 @@
       <c r="S17" s="8"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="C18" s="7">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1636</v>
-      </c>
-      <c r="F18" s="11">
-        <v>195</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="14">
-        <v>32919</v>
-      </c>
-      <c r="I18" s="11">
-        <v>2374</v>
-      </c>
-      <c r="J18" s="14">
-        <v>17129</v>
-      </c>
-      <c r="K18" s="11">
-        <v>21693</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="11"/>
       <c r="L18">
-        <v>11357</v>
+        <v>8052</v>
       </c>
       <c r="M18">
-        <v>4001</v>
+        <v>3753</v>
       </c>
       <c r="N18">
-        <v>4992</v>
+        <v>3625</v>
       </c>
       <c r="O18" s="11">
-        <v>4831</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18">
-        <v>5404</v>
-      </c>
-      <c r="R18" s="11">
-        <v>11146</v>
-      </c>
+        <v>1873</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="8"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1636</v>
+      </c>
+      <c r="F19" s="11">
+        <v>195</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="14">
+        <v>32919</v>
+      </c>
+      <c r="I19" s="11">
+        <v>2374</v>
+      </c>
+      <c r="J19" s="14">
+        <v>17129</v>
+      </c>
+      <c r="K19" s="11">
+        <v>21693</v>
+      </c>
+      <c r="L19">
+        <v>11357</v>
+      </c>
+      <c r="M19">
+        <v>4001</v>
+      </c>
+      <c r="N19">
+        <v>4992</v>
+      </c>
+      <c r="O19" s="11">
+        <v>4831</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19">
+        <v>5404</v>
+      </c>
+      <c r="R19" s="11">
+        <v>11146</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="U19" s="11"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>125</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <v>2.6</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E20" s="14">
         <v>4315</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>477</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="15">
         <v>39582</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="14">
         <v>30577</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I20" s="11">
         <v>326</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="14">
         <v>16656</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K20" s="11">
         <v>1313</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L20" s="19">
         <v>12732</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M20" s="19">
         <v>5001</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N20" s="19">
         <v>4887</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O20" s="11">
         <v>6138</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="P20" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q20" s="19">
         <v>7794</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R20" s="11">
         <v>17676</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="S20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="T19">
+      <c r="T20">
         <v>2004</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U20" s="11">
         <v>6531</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>149</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <v>2.67</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="14">
+      <c r="E21" s="14"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="14">
         <v>23055</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="11">
         <v>22128</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>17083</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>6631</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>7194</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O21" s="11">
         <v>6416</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="P21" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <v>11336</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R21" s="11">
         <v>33177</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S21" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <v>2830</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U21" s="11">
         <v>8632</v>
       </c>
-      <c r="V20" s="19"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>96</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>2.7</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>4307</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>475</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="15">
         <v>62894</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>61569</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>353</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="14">
         <v>31804</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K22" s="11">
         <v>1136</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>24977</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>9937</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>11437</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <v>7296</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <v>16638</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R22" s="11">
         <v>25670</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S22" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="T21">
+      <c r="T22">
         <v>4242</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U22" s="11">
         <v>9030</v>
       </c>
-      <c r="V21" s="19"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="V22" s="19"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>151</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2.67</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="14">
-        <v>4296</v>
-      </c>
-      <c r="F22" s="11">
-        <v>476</v>
-      </c>
-      <c r="G22" s="15">
-        <v>40469</v>
-      </c>
-      <c r="H22" s="14">
-        <v>84416</v>
-      </c>
-      <c r="I22" s="11">
-        <v>201</v>
-      </c>
-      <c r="J22" s="14">
-        <v>19189</v>
-      </c>
-      <c r="K22" s="11">
-        <v>806</v>
-      </c>
-      <c r="L22" s="19">
-        <v>20374</v>
-      </c>
-      <c r="M22" s="19">
-        <v>6999</v>
-      </c>
-      <c r="N22" s="19">
-        <v>9704</v>
-      </c>
-      <c r="O22" s="11">
-        <v>7166</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q22">
-        <v>25653</v>
-      </c>
-      <c r="R22" s="11">
-        <v>33350</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="T22">
-        <v>10130</v>
-      </c>
-      <c r="U22" s="11">
-        <v>8996</v>
-      </c>
-      <c r="V22" s="19"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>150</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
@@ -2724,38 +2703,104 @@
         <v>2.67</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="14">
+        <v>4296</v>
+      </c>
+      <c r="F23" s="11">
+        <v>476</v>
+      </c>
+      <c r="G23" s="15">
+        <v>40469</v>
+      </c>
+      <c r="H23" s="14">
+        <v>84416</v>
+      </c>
+      <c r="I23" s="11">
+        <v>201</v>
+      </c>
+      <c r="J23" s="14">
+        <v>19189</v>
+      </c>
+      <c r="K23" s="11">
+        <v>806</v>
+      </c>
+      <c r="L23" s="19">
+        <v>20374</v>
+      </c>
+      <c r="M23" s="19">
+        <v>6999</v>
+      </c>
+      <c r="N23" s="19">
+        <v>9704</v>
+      </c>
+      <c r="O23" s="11">
+        <v>7166</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23">
+        <v>25653</v>
+      </c>
+      <c r="R23" s="11">
+        <v>33350</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23">
+        <v>10130</v>
+      </c>
+      <c r="U23" s="11">
+        <v>8996</v>
+      </c>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="14">
+      <c r="E24" s="14"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="14">
         <v>23187</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K24" s="11">
         <v>742</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>20211</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>6731</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>9800</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O24" s="11">
         <v>7193</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="8"/>
-      <c r="U23" s="11"/>
+      <c r="P24" s="8"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="8"/>
+      <c r="U24" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:V23">
+  <sortState ref="A19:V23">
     <sortCondition ref="V19:V23"/>
   </sortState>
   <mergeCells count="6">
@@ -2771,29 +2816,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE89E42-58B4-4FEF-A9D5-830DE33AE146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>73</v>
       </c>
@@ -2843,7 +2888,7 @@
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2863,7 +2908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2880,7 +2925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2897,7 +2942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2917,7 +2962,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2949,7 +2994,7 @@
         <v>81396</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2978,7 +3023,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3013,7 +3058,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3051,7 +3096,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3084,7 +3129,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L10">
+  <sortState ref="A2:L10">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
